--- a/maxs_work/bulletin_132_work/transfers_by_buyer_new.xlsx
+++ b/maxs_work/bulletin_132_work/transfers_by_buyer_new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxslesinski/Desktop/Research/Bulletin 132 Work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxslesinski/Documents/GitHub/dlkency_CALFEWS/CALFEWS/maxs_work/bulletin_132_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0750A78-CB3F-DC41-B541-22E71EB469FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F65D17-A1D1-3141-B8F3-140EC276AC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15060" yWindow="500" windowWidth="13740" windowHeight="16280" xr2:uid="{CAEF76C3-CC13-994B-AF76-6F3F7E947AA6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>Buyer</t>
   </si>
@@ -132,6 +132,37 @@
   </si>
   <si>
     <t>MFP Project</t>
+  </si>
+  <si>
+    <t>Dudley Ridge Water District, Kern County Water Agency, County of Kings, Palmdale Water District, Santa Clarita Valley Water Agency, San Gorgonio Pass Water Agency, Metropolitan Water District of Southern California, Alameda County Water District, Zone 7 Water Agency, Santa Clara Valley Water District, Santa Barbara County Flood Control and Water Conservation District, San Gabriel Valley Water Company, Antelope Valley East Kern Water Agency, San Bernardino Valley Municipal Water District, and Napa County Flood Control and Water Conservation District</t>
+  </si>
+  <si>
+    <t>SWP Dry Year Transfer Program</t>
+  </si>
+  <si>
+    <t>Dudley Ridge Water District, Central Coast Water Authority, County of Kings, San Gorgonio Pass Water Agency, Metropolitan Water District of Southern California, San Gabriel Valley Water Company, Antelope Valley East Kern Water Agency, Zone 7 Water Agency, San Bernardino Valley Municipal Water District, Santa Clara Valley Water District, County of Napa Flood Control and Water Conservation District, Palmdale Water District, Santa Clarita Valley Water District, Kern County Water Agency, and Alameda County Water District</t>
+  </si>
+  <si>
+    <t>Santa Clara Valley Water District, Dudley
+Ridge Water District, Central Coast Water Authority, County of Kings, San Gorgonio
+Pass Water Agency, Metropolitan Water District of Southern California, San Gabriel
+Valley Water Company, Antelope Valley East Kern Water Agency, Zone 7 Water
+Agency, San Bernardino Valley Municipal Water District, Santa Clara Valley Water
+District, County of Napa Flood Control and Water Conservation District, Palmdale Water
+District, Santa Clarita Valley Water District, Kern County Water Agency, and Alameda
+County Water District</t>
+  </si>
+  <si>
+    <t>Transfer and SWP Dry Year Transfer Program</t>
+  </si>
+  <si>
+    <t>City of Montague</t>
+  </si>
+  <si>
+    <t>10-Year Transfer Program</t>
+  </si>
+  <si>
+    <t>Dudley Ridge Water District, Kern County Water Agency, County of Kings, Palmdale Water District, San Gorgonio Pass Water Agency, Santa Clarita Valley Water Agency, Metropolitan Water District of Southern California, San Gabriel Valley Water Company, Alameda County Water District, Zone 7 Water Agency, Santa Clara Valley Water District, Antelope Valley East Kern Water Agency, San Bernardino Valley Municipal Water District, and Napa County Flood Control and Water Conservation District</t>
   </si>
 </sst>
 </file>
@@ -167,9 +198,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF4683E-4F28-3349-940D-48DD80CE5C9C}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,6 +995,193 @@
         <v>15</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>3500</v>
+      </c>
+      <c r="E27">
+        <v>2021</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>8000</v>
+      </c>
+      <c r="E28">
+        <v>2021</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>1200</v>
+      </c>
+      <c r="E29">
+        <v>2021</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>1539</v>
+      </c>
+      <c r="E30">
+        <v>2021</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>1889</v>
+      </c>
+      <c r="E31">
+        <v>2021</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2">
+        <v>14650</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2">
+        <v>500</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5500</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2">
+        <v>76069</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/maxs_work/bulletin_132_work/transfers_by_buyer_new.xlsx
+++ b/maxs_work/bulletin_132_work/transfers_by_buyer_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxslesinski/Documents/GitHub/dlkency_CALFEWS/CALFEWS/maxs_work/bulletin_132_work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/danli_ad_unc_edu/Documents/github/CALFEWS/maxs_work/bulletin_132_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F65D17-A1D1-3141-B8F3-140EC276AC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{A8F65D17-A1D1-3141-B8F3-140EC276AC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C1FE230-8F4C-4633-9F7A-6E7E74BCE4B0}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="500" windowWidth="13740" windowHeight="16280" xr2:uid="{CAEF76C3-CC13-994B-AF76-6F3F7E947AA6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="592" xr2:uid="{CAEF76C3-CC13-994B-AF76-6F3F7E947AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,15 +535,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF4683E-4F28-3349-940D-48DD80CE5C9C}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -587,7 +593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -604,7 +610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -621,7 +627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -638,7 +644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -655,7 +661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -672,7 +678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -689,7 +695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -706,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -723,7 +729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -740,7 +746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -757,7 +763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -774,7 +780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -791,7 +797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -808,7 +814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -825,7 +831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -842,7 +848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -859,7 +865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -876,7 +882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -893,7 +899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -910,7 +916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -927,7 +933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -944,7 +950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -961,7 +967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -978,7 +984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1080,105 +1086,105 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>14650</v>
       </c>
-      <c r="E32" s="2">
-        <v>2021</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32">
+        <v>2021</v>
+      </c>
+      <c r="F32" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>500</v>
       </c>
-      <c r="E33" s="2">
-        <v>2021</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="E33">
+        <v>2021</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>5000</v>
       </c>
-      <c r="E34" s="2">
-        <v>2021</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E34">
+        <v>2021</v>
+      </c>
+      <c r="F34" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>5500</v>
       </c>
-      <c r="E35" s="2">
-        <v>2021</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>2021</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>2000</v>
       </c>
-      <c r="E36" s="2">
-        <v>2021</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>2021</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>76069</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37">
         <v>2021</v>
       </c>
       <c r="F37" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" t="s">
         <v>15</v>
       </c>
     </row>
